--- a/Data/SNV_filtering_inputs/PillarProject_filtering/CTCF/20250415_CTCF_filter_entry.xlsx
+++ b/Data/SNV_filtering_inputs/PillarProject_filtering/CTCF/20250415_CTCF_filter_entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/PillarProject_filtering/CTCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73FC223-2D76-BA4A-9A2E-FB5C426DED54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E1D88-9F80-CB4A-BF31-5A6944B2A523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="14180" windowHeight="17180" xr2:uid="{8C01A5B8-3E10-AC49-BF69-E3F8303A9D28}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="14180" windowHeight="16140" xr2:uid="{8C01A5B8-3E10-AC49-BF69-E3F8303A9D28}"/>
   </bookViews>
   <sheets>
     <sheet name="targets" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>target</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>CTCF_X9C</t>
+  </si>
+  <si>
+    <t>CTCF_X11A</t>
+  </si>
+  <si>
+    <t>CTCF_X11B</t>
   </si>
 </sst>
 </file>
@@ -513,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62994A6-6D19-2F4F-B0C1-5CEBE9CEC4CE}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,136 +538,136 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>67616719</v>
-      </c>
-      <c r="C2" s="1">
-        <v>67616840</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>67610814</v>
+      </c>
+      <c r="C2">
+        <v>67610930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>67616780</v>
-      </c>
-      <c r="C3" s="1">
-        <v>67616899</v>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>67610911</v>
+      </c>
+      <c r="C3">
+        <v>67611033</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>67610814</v>
-      </c>
-      <c r="C4" s="2">
-        <v>67610930</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>67611020</v>
+      </c>
+      <c r="C4">
+        <v>67611139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>67610911</v>
-      </c>
-      <c r="C5" s="1">
-        <v>67611033</v>
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>67611112</v>
+      </c>
+      <c r="C5">
+        <v>67611233</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>67611020</v>
+        <v>67611223</v>
       </c>
       <c r="C6">
-        <v>67611139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+        <v>67611344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>67611112</v>
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>67611341</v>
       </c>
       <c r="C7">
-        <v>67611233</v>
+        <v>67611458</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>67611223</v>
+        <v>67611434</v>
       </c>
       <c r="C8">
-        <v>67611344</v>
+        <v>67611552</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>67611341</v>
+        <v>67611540</v>
       </c>
       <c r="C9">
-        <v>67611458</v>
+        <v>67611659</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>67611434</v>
+        <v>67611928</v>
       </c>
       <c r="C10">
-        <v>67611552</v>
+        <v>67612040</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>67611540</v>
+        <v>67612029</v>
       </c>
       <c r="C11">
-        <v>67611659</v>
+        <v>67612148</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>67611928</v>
+        <v>67616719</v>
       </c>
       <c r="C12">
-        <v>67612040</v>
+        <v>67616840</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>67612029</v>
+        <v>67616780</v>
       </c>
       <c r="C13">
-        <v>67612146</v>
+        <v>67616899</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -787,34 +793,56 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>67637655</v>
+        <v>67636674</v>
       </c>
       <c r="C25">
-        <v>67637776</v>
+        <v>67636795</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>67637736</v>
+        <v>67636765</v>
       </c>
       <c r="C26">
-        <v>67637855</v>
+        <v>67636883</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>67637655</v>
+      </c>
+      <c r="C27">
+        <v>67637776</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>67637736</v>
+      </c>
+      <c r="C28">
+        <v>67637855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>67637797</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>67637916</v>
       </c>
     </row>
